--- a/results/gurobi_cplex_comparison/seed_20_k_45.xlsx
+++ b/results/gurobi_cplex_comparison/seed_20_k_45.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.013</v>
+        <v>1.269</v>
       </c>
       <c r="F2">
-        <v>0.033</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.026</v>
+        <v>1.754</v>
       </c>
       <c r="F3">
-        <v>0.05</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.059</v>
+        <v>2.44</v>
       </c>
       <c r="F4">
-        <v>0.061</v>
+        <v>0.606</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.053</v>
+        <v>3.163</v>
       </c>
       <c r="F5">
-        <v>0.073</v>
+        <v>0.728</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1</v>
+        <v>4.024</v>
       </c>
       <c r="F6">
-        <v>0.077</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.063</v>
+        <v>4.964</v>
       </c>
       <c r="F7">
-        <v>3.743</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.038</v>
+        <v>5.951</v>
       </c>
       <c r="F8">
-        <v>0.074</v>
+        <v>1.271</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.076</v>
+        <v>7.114</v>
       </c>
       <c r="F9">
-        <v>0.08699999999999999</v>
+        <v>1.466</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.033</v>
+        <v>8.327999999999999</v>
       </c>
       <c r="F10">
-        <v>0.1</v>
+        <v>1.701</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.049</v>
+        <v>9.695</v>
       </c>
       <c r="F11">
-        <v>2.768</v>
+        <v>2.539</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.079</v>
+        <v>11.116</v>
       </c>
       <c r="F12">
-        <v>95.01900000000001</v>
+        <v>123.345</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.221</v>
+        <v>12.737</v>
       </c>
       <c r="F13">
-        <v>91.845</v>
+        <v>156.238</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.322</v>
+        <v>14.493</v>
       </c>
       <c r="F14">
-        <v>128.271</v>
+        <v>110.344</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.203</v>
+        <v>16.179</v>
       </c>
       <c r="F15">
-        <v>102.94</v>
+        <v>124.808</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.169</v>
+        <v>17.935</v>
       </c>
       <c r="F16">
-        <v>99.36</v>
+        <v>96.76300000000001</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.479</v>
+        <v>20.177</v>
       </c>
       <c r="F17">
-        <v>99.93000000000001</v>
+        <v>107.088</v>
       </c>
     </row>
   </sheetData>
